--- a/Docs/Акты-реестры Клиентам/Реестр Клиенту.xlsx
+++ b/Docs/Акты-реестры Клиентам/Реестр Клиенту.xlsx
@@ -396,7 +396,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -416,9 +416,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -433,9 +430,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -445,18 +439,12 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -481,6 +469,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,7 +523,22 @@
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -807,12 +831,12 @@
   <dimension ref="A1:XEX17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" style="26" customWidth="1"/>
     <col min="2" max="2" width="4.265625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.1328125" customWidth="1"/>
@@ -822,112 +846,106 @@
     <col min="8" max="8" width="35.1328125" customWidth="1"/>
     <col min="9" max="9" width="11.265625" customWidth="1"/>
     <col min="10" max="10" width="16.3984375" customWidth="1"/>
-    <col min="11" max="11" width="10.73046875" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" customWidth="1"/>
-    <col min="13" max="13" width="13.265625" customWidth="1"/>
-    <col min="14" max="14" width="13.3984375" customWidth="1"/>
-    <col min="15" max="15" width="15.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" style="34" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="13.265625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="15.59765625" style="10" customWidth="1"/>
     <col min="17" max="17" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15 16378:16378" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="2:15 16378:16378" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="2:15 16378:16378" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="2:15 16378:16378" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="2:15 16378:16378" x14ac:dyDescent="0.45">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="2:15 16378:16378" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
     </row>
     <row r="7" spans="2:15 16378:16378" ht="38.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -954,19 +972,19 @@
       <c r="J7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -974,7 +992,7 @@
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -998,19 +1016,19 @@
       <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="51">
         <v>17</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="51">
         <v>18</v>
       </c>
       <c r="XEX8">
@@ -1019,39 +1037,39 @@
       </c>
     </row>
     <row r="9" spans="2:15 16378:16378" x14ac:dyDescent="0.45">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="13"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="2:15 16378:16378" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="23"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15 16378:16378" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="4"/>
@@ -1065,85 +1083,85 @@
         <v>0</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="8">
+      <c r="K11" s="32"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="7">
         <f>SUM(M9:M10)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f>SUM(N9:N10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f>SUM(O9:O10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:15 16378:16378" x14ac:dyDescent="0.45">
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="J14" s="36" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="J14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="35"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="2:15 16378:16378" x14ac:dyDescent="0.45">
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="20"/>
-      <c r="J15" s="39" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="17"/>
+      <c r="J15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="21"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="2:15 16378:16378" x14ac:dyDescent="0.45">
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="20"/>
-      <c r="J16" s="39" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="17"/>
+      <c r="J16" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="38"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="43"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
